--- a/results/European Championship 2020_49erFX.xlsx
+++ b/results/European Championship 2020_49erFX.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2998" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2998" uniqueCount="139">
   <si>
     <t>Nome Competidor</t>
   </si>
@@ -250,10 +250,13 @@
     <t>26.0</t>
   </si>
   <si>
-    <t>G</t>
+    <t>GERAL</t>
   </si>
   <si>
-    <t>S</t>
+    <t>OURO</t>
+  </si>
+  <si>
+    <t>PRATA</t>
   </si>
   <si>
     <t>UFD</t>
@@ -849,13 +852,13 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -881,13 +884,13 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -913,13 +916,13 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -945,13 +948,13 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -977,13 +980,13 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1009,13 +1012,13 @@
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1035,19 +1038,19 @@
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1067,19 +1070,19 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K9" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1099,19 +1102,19 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J10" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K10" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1131,19 +1134,19 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K11" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1163,19 +1166,19 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J12" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K12" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1201,13 +1204,13 @@
         <v>2</v>
       </c>
       <c r="I13" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J13" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1233,13 +1236,13 @@
         <v>2</v>
       </c>
       <c r="I14" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J14" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K14" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1265,13 +1268,13 @@
         <v>2</v>
       </c>
       <c r="I15" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J15" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K15" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1297,13 +1300,13 @@
         <v>2</v>
       </c>
       <c r="I16" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J16" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K16" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1329,13 +1332,13 @@
         <v>2</v>
       </c>
       <c r="I17" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J17" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K17" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1361,13 +1364,13 @@
         <v>2</v>
       </c>
       <c r="I18" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J18" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K18" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1387,19 +1390,19 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G19">
         <v>2</v>
       </c>
       <c r="I19" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J19" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K19" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1419,19 +1422,19 @@
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G20">
         <v>2</v>
       </c>
       <c r="I20" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J20" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K20" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1451,19 +1454,19 @@
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G21">
         <v>2</v>
       </c>
       <c r="I21" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J21" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K21" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1483,19 +1486,19 @@
         <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G22">
         <v>2</v>
       </c>
       <c r="I22" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J22" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K22" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1515,19 +1518,19 @@
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G23">
         <v>2</v>
       </c>
       <c r="I23" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J23" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K23" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1553,13 +1556,13 @@
         <v>3</v>
       </c>
       <c r="I24" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J24" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K24" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1585,13 +1588,13 @@
         <v>3</v>
       </c>
       <c r="I25" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J25" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K25" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1617,13 +1620,13 @@
         <v>3</v>
       </c>
       <c r="I26" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J26" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K26" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1649,13 +1652,13 @@
         <v>3</v>
       </c>
       <c r="I27" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J27" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K27" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1681,13 +1684,13 @@
         <v>3</v>
       </c>
       <c r="I28" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J28" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K28" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1713,13 +1716,13 @@
         <v>3</v>
       </c>
       <c r="I29" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J29" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K29" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1739,19 +1742,19 @@
         <v>0</v>
       </c>
       <c r="F30" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G30">
         <v>3</v>
       </c>
       <c r="I30" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J30" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K30" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1771,19 +1774,19 @@
         <v>0</v>
       </c>
       <c r="F31" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G31">
         <v>3</v>
       </c>
       <c r="I31" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J31" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K31" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1803,19 +1806,19 @@
         <v>0</v>
       </c>
       <c r="F32" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G32">
         <v>3</v>
       </c>
       <c r="I32" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J32" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K32" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1835,19 +1838,19 @@
         <v>0</v>
       </c>
       <c r="F33" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G33">
         <v>3</v>
       </c>
       <c r="I33" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J33" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K33" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1867,19 +1870,19 @@
         <v>0</v>
       </c>
       <c r="F34" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G34">
         <v>3</v>
       </c>
       <c r="I34" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J34" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K34" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1905,13 +1908,13 @@
         <v>4</v>
       </c>
       <c r="I35" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J35" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K35" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1937,13 +1940,13 @@
         <v>4</v>
       </c>
       <c r="I36" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J36" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K36" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1969,13 +1972,13 @@
         <v>4</v>
       </c>
       <c r="I37" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J37" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K37" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -2001,13 +2004,13 @@
         <v>4</v>
       </c>
       <c r="I38" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J38" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K38" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -2033,13 +2036,13 @@
         <v>4</v>
       </c>
       <c r="I39" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J39" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K39" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -2065,13 +2068,13 @@
         <v>4</v>
       </c>
       <c r="I40" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J40" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K40" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -2091,19 +2094,19 @@
         <v>0</v>
       </c>
       <c r="F41" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G41">
         <v>4</v>
       </c>
       <c r="I41" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J41" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K41" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -2123,19 +2126,19 @@
         <v>0</v>
       </c>
       <c r="F42" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G42">
         <v>4</v>
       </c>
       <c r="I42" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J42" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K42" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -2155,19 +2158,19 @@
         <v>0</v>
       </c>
       <c r="F43" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G43">
         <v>4</v>
       </c>
       <c r="I43" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J43" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K43" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -2187,19 +2190,19 @@
         <v>0</v>
       </c>
       <c r="F44" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G44">
         <v>4</v>
       </c>
       <c r="I44" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J44" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K44" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -2219,19 +2222,19 @@
         <v>0</v>
       </c>
       <c r="F45" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G45">
         <v>4</v>
       </c>
       <c r="I45" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J45" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K45" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2257,13 +2260,13 @@
         <v>5</v>
       </c>
       <c r="I46" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J46" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K46" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2289,13 +2292,13 @@
         <v>5</v>
       </c>
       <c r="I47" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J47" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K47" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2321,13 +2324,13 @@
         <v>5</v>
       </c>
       <c r="I48" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J48" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K48" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2353,13 +2356,13 @@
         <v>5</v>
       </c>
       <c r="I49" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J49" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K49" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2385,13 +2388,13 @@
         <v>5</v>
       </c>
       <c r="I50" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J50" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K50" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2417,13 +2420,13 @@
         <v>5</v>
       </c>
       <c r="I51" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J51" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K51" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2443,19 +2446,19 @@
         <v>0</v>
       </c>
       <c r="F52" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G52">
         <v>5</v>
       </c>
       <c r="I52" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J52" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K52" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2475,19 +2478,19 @@
         <v>0</v>
       </c>
       <c r="F53" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G53">
         <v>5</v>
       </c>
       <c r="I53" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J53" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K53" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2507,19 +2510,19 @@
         <v>0</v>
       </c>
       <c r="F54" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G54">
         <v>5</v>
       </c>
       <c r="I54" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J54" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K54" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2539,19 +2542,19 @@
         <v>0</v>
       </c>
       <c r="F55" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G55">
         <v>5</v>
       </c>
       <c r="I55" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J55" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K55" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -2571,19 +2574,19 @@
         <v>0</v>
       </c>
       <c r="F56" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G56">
         <v>5</v>
       </c>
       <c r="I56" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J56" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K56" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -2609,13 +2612,13 @@
         <v>6</v>
       </c>
       <c r="I57" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J57" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K57" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -2641,13 +2644,13 @@
         <v>6</v>
       </c>
       <c r="I58" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J58" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K58" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -2673,13 +2676,13 @@
         <v>6</v>
       </c>
       <c r="I59" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J59" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K59" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -2705,13 +2708,13 @@
         <v>6</v>
       </c>
       <c r="I60" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J60" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K60" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -2737,13 +2740,13 @@
         <v>6</v>
       </c>
       <c r="I61" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J61" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K61" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -2769,13 +2772,13 @@
         <v>6</v>
       </c>
       <c r="I62" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J62" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K62" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -2795,19 +2798,19 @@
         <v>0</v>
       </c>
       <c r="F63" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G63">
         <v>6</v>
       </c>
       <c r="I63" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J63" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K63" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -2827,19 +2830,19 @@
         <v>0</v>
       </c>
       <c r="F64" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G64">
         <v>6</v>
       </c>
       <c r="I64" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J64" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K64" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -2859,19 +2862,19 @@
         <v>0</v>
       </c>
       <c r="F65" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G65">
         <v>6</v>
       </c>
       <c r="I65" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J65" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K65" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -2891,19 +2894,19 @@
         <v>0</v>
       </c>
       <c r="F66" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G66">
         <v>6</v>
       </c>
       <c r="I66" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J66" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K66" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -2923,19 +2926,19 @@
         <v>1</v>
       </c>
       <c r="F67" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G67">
         <v>6</v>
       </c>
       <c r="I67" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J67" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K67" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -2961,13 +2964,13 @@
         <v>7</v>
       </c>
       <c r="I68" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J68" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K68" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -2993,13 +2996,13 @@
         <v>7</v>
       </c>
       <c r="I69" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J69" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K69" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -3025,13 +3028,13 @@
         <v>7</v>
       </c>
       <c r="I70" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J70" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K70" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -3057,13 +3060,13 @@
         <v>7</v>
       </c>
       <c r="I71" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J71" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K71" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -3089,13 +3092,13 @@
         <v>7</v>
       </c>
       <c r="I72" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J72" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K72" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -3121,13 +3124,13 @@
         <v>7</v>
       </c>
       <c r="I73" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J73" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K73" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -3147,19 +3150,19 @@
         <v>0</v>
       </c>
       <c r="F74" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G74">
         <v>7</v>
       </c>
       <c r="I74" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J74" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K74" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -3179,19 +3182,19 @@
         <v>1</v>
       </c>
       <c r="F75" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G75">
         <v>7</v>
       </c>
       <c r="I75" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J75" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K75" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -3211,19 +3214,19 @@
         <v>0</v>
       </c>
       <c r="F76" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G76">
         <v>7</v>
       </c>
       <c r="I76" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J76" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K76" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3243,19 +3246,19 @@
         <v>0</v>
       </c>
       <c r="F77" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G77">
         <v>7</v>
       </c>
       <c r="I77" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J77" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K77" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -3275,19 +3278,19 @@
         <v>0</v>
       </c>
       <c r="F78" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G78">
         <v>7</v>
       </c>
       <c r="I78" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J78" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K78" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -3313,13 +3316,13 @@
         <v>8</v>
       </c>
       <c r="I79" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J79" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K79" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3345,13 +3348,13 @@
         <v>8</v>
       </c>
       <c r="I80" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J80" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K80" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -3377,13 +3380,13 @@
         <v>8</v>
       </c>
       <c r="I81" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J81" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K81" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -3409,13 +3412,13 @@
         <v>8</v>
       </c>
       <c r="I82" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J82" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K82" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -3441,16 +3444,16 @@
         <v>8</v>
       </c>
       <c r="H83" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I83" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J83" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K83" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -3476,13 +3479,13 @@
         <v>8</v>
       </c>
       <c r="I84" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J84" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K84" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -3502,19 +3505,19 @@
         <v>1</v>
       </c>
       <c r="F85" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G85">
         <v>8</v>
       </c>
       <c r="I85" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J85" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K85" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -3534,19 +3537,19 @@
         <v>0</v>
       </c>
       <c r="F86" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G86">
         <v>8</v>
       </c>
       <c r="I86" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J86" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K86" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -3566,19 +3569,19 @@
         <v>0</v>
       </c>
       <c r="F87" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G87">
         <v>8</v>
       </c>
       <c r="I87" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J87" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K87" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -3598,19 +3601,19 @@
         <v>0</v>
       </c>
       <c r="F88" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G88">
         <v>8</v>
       </c>
       <c r="I88" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J88" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K88" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -3630,19 +3633,19 @@
         <v>0</v>
       </c>
       <c r="F89" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G89">
         <v>8</v>
       </c>
       <c r="I89" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J89" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K89" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -3668,13 +3671,13 @@
         <v>9</v>
       </c>
       <c r="I90" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J90" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K90" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -3700,13 +3703,13 @@
         <v>9</v>
       </c>
       <c r="I91" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J91" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K91" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -3732,13 +3735,13 @@
         <v>9</v>
       </c>
       <c r="I92" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J92" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K92" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -3764,13 +3767,13 @@
         <v>9</v>
       </c>
       <c r="I93" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J93" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K93" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -3796,13 +3799,13 @@
         <v>9</v>
       </c>
       <c r="I94" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J94" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K94" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -3828,13 +3831,13 @@
         <v>9</v>
       </c>
       <c r="I95" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J95" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K95" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -3854,19 +3857,19 @@
         <v>1</v>
       </c>
       <c r="F96" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G96">
         <v>9</v>
       </c>
       <c r="I96" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J96" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K96" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -3886,19 +3889,19 @@
         <v>0</v>
       </c>
       <c r="F97" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G97">
         <v>9</v>
       </c>
       <c r="I97" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J97" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K97" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -3918,19 +3921,19 @@
         <v>0</v>
       </c>
       <c r="F98" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G98">
         <v>9</v>
       </c>
       <c r="I98" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J98" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K98" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -3950,19 +3953,19 @@
         <v>0</v>
       </c>
       <c r="F99" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G99">
         <v>9</v>
       </c>
       <c r="I99" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J99" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K99" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -3982,19 +3985,19 @@
         <v>0</v>
       </c>
       <c r="F100" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G100">
         <v>9</v>
       </c>
       <c r="I100" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J100" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K100" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -4020,13 +4023,13 @@
         <v>10</v>
       </c>
       <c r="I101" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J101" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K101" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -4052,13 +4055,13 @@
         <v>10</v>
       </c>
       <c r="I102" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J102" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K102" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -4084,13 +4087,13 @@
         <v>10</v>
       </c>
       <c r="I103" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J103" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K103" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -4116,13 +4119,13 @@
         <v>10</v>
       </c>
       <c r="I104" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J104" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K104" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -4148,13 +4151,13 @@
         <v>10</v>
       </c>
       <c r="I105" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J105" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K105" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -4180,13 +4183,13 @@
         <v>10</v>
       </c>
       <c r="I106" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J106" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K106" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -4206,19 +4209,19 @@
         <v>0</v>
       </c>
       <c r="F107" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G107">
         <v>10</v>
       </c>
       <c r="I107" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J107" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K107" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -4238,19 +4241,19 @@
         <v>0</v>
       </c>
       <c r="F108" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G108">
         <v>10</v>
       </c>
       <c r="I108" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J108" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K108" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -4270,19 +4273,19 @@
         <v>0</v>
       </c>
       <c r="F109" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G109">
         <v>10</v>
       </c>
       <c r="I109" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J109" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K109" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -4302,19 +4305,19 @@
         <v>0</v>
       </c>
       <c r="F110" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G110">
         <v>10</v>
       </c>
       <c r="I110" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J110" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K110" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -4334,19 +4337,19 @@
         <v>1</v>
       </c>
       <c r="F111" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G111">
         <v>10</v>
       </c>
       <c r="I111" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J111" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K111" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="112" spans="1:11">
@@ -4372,13 +4375,13 @@
         <v>11</v>
       </c>
       <c r="I112" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J112" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K112" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="113" spans="1:11">
@@ -4404,13 +4407,13 @@
         <v>11</v>
       </c>
       <c r="I113" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J113" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K113" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="114" spans="1:11">
@@ -4436,13 +4439,13 @@
         <v>11</v>
       </c>
       <c r="I114" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J114" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K114" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="115" spans="1:11">
@@ -4468,13 +4471,13 @@
         <v>11</v>
       </c>
       <c r="I115" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J115" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K115" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="116" spans="1:11">
@@ -4500,13 +4503,13 @@
         <v>11</v>
       </c>
       <c r="I116" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J116" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K116" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="117" spans="1:11">
@@ -4532,13 +4535,13 @@
         <v>11</v>
       </c>
       <c r="I117" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J117" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K117" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="118" spans="1:11">
@@ -4558,19 +4561,19 @@
         <v>0</v>
       </c>
       <c r="F118" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G118">
         <v>11</v>
       </c>
       <c r="I118" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J118" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K118" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="119" spans="1:11">
@@ -4590,19 +4593,19 @@
         <v>0</v>
       </c>
       <c r="F119" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G119">
         <v>11</v>
       </c>
       <c r="I119" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J119" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K119" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="120" spans="1:11">
@@ -4622,19 +4625,19 @@
         <v>0</v>
       </c>
       <c r="F120" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G120">
         <v>11</v>
       </c>
       <c r="I120" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J120" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K120" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="121" spans="1:11">
@@ -4654,19 +4657,19 @@
         <v>0</v>
       </c>
       <c r="F121" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G121">
         <v>11</v>
       </c>
       <c r="I121" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J121" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K121" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="122" spans="1:11">
@@ -4686,19 +4689,19 @@
         <v>1</v>
       </c>
       <c r="F122" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G122">
         <v>11</v>
       </c>
       <c r="I122" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J122" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K122" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="123" spans="1:11">
@@ -4724,13 +4727,13 @@
         <v>12</v>
       </c>
       <c r="I123" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J123" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K123" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="124" spans="1:11">
@@ -4756,13 +4759,13 @@
         <v>12</v>
       </c>
       <c r="I124" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J124" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K124" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="125" spans="1:11">
@@ -4788,13 +4791,13 @@
         <v>12</v>
       </c>
       <c r="I125" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J125" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K125" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="126" spans="1:11">
@@ -4820,13 +4823,13 @@
         <v>12</v>
       </c>
       <c r="I126" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J126" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K126" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="127" spans="1:11">
@@ -4852,13 +4855,13 @@
         <v>12</v>
       </c>
       <c r="I127" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J127" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K127" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="128" spans="1:11">
@@ -4884,13 +4887,13 @@
         <v>12</v>
       </c>
       <c r="I128" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J128" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K128" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="129" spans="1:11">
@@ -4910,19 +4913,19 @@
         <v>1</v>
       </c>
       <c r="F129" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G129">
         <v>12</v>
       </c>
       <c r="I129" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J129" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K129" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="130" spans="1:11">
@@ -4942,19 +4945,19 @@
         <v>0</v>
       </c>
       <c r="F130" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G130">
         <v>12</v>
       </c>
       <c r="I130" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J130" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K130" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="131" spans="1:11">
@@ -4974,19 +4977,19 @@
         <v>0</v>
       </c>
       <c r="F131" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G131">
         <v>12</v>
       </c>
       <c r="I131" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J131" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K131" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="132" spans="1:11">
@@ -5006,19 +5009,19 @@
         <v>0</v>
       </c>
       <c r="F132" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G132">
         <v>12</v>
       </c>
       <c r="I132" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J132" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K132" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="133" spans="1:11">
@@ -5038,19 +5041,19 @@
         <v>0</v>
       </c>
       <c r="F133" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G133">
         <v>12</v>
       </c>
       <c r="I133" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J133" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K133" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="134" spans="1:11">
@@ -5076,13 +5079,13 @@
         <v>13</v>
       </c>
       <c r="I134" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J134" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K134" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="135" spans="1:11">
@@ -5108,13 +5111,13 @@
         <v>13</v>
       </c>
       <c r="I135" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J135" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K135" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="136" spans="1:11">
@@ -5140,13 +5143,13 @@
         <v>13</v>
       </c>
       <c r="I136" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J136" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K136" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="137" spans="1:11">
@@ -5172,13 +5175,13 @@
         <v>13</v>
       </c>
       <c r="I137" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J137" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K137" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="138" spans="1:11">
@@ -5204,13 +5207,13 @@
         <v>13</v>
       </c>
       <c r="I138" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J138" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K138" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="139" spans="1:11">
@@ -5236,13 +5239,13 @@
         <v>13</v>
       </c>
       <c r="I139" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J139" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K139" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="140" spans="1:11">
@@ -5262,19 +5265,19 @@
         <v>0</v>
       </c>
       <c r="F140" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G140">
         <v>13</v>
       </c>
       <c r="I140" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J140" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K140" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="141" spans="1:11">
@@ -5294,19 +5297,19 @@
         <v>1</v>
       </c>
       <c r="F141" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G141">
         <v>13</v>
       </c>
       <c r="I141" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J141" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K141" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="142" spans="1:11">
@@ -5326,19 +5329,19 @@
         <v>0</v>
       </c>
       <c r="F142" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G142">
         <v>13</v>
       </c>
       <c r="I142" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J142" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K142" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="143" spans="1:11">
@@ -5358,19 +5361,19 @@
         <v>0</v>
       </c>
       <c r="F143" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G143">
         <v>13</v>
       </c>
       <c r="I143" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J143" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K143" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="144" spans="1:11">
@@ -5390,19 +5393,19 @@
         <v>0</v>
       </c>
       <c r="F144" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G144">
         <v>13</v>
       </c>
       <c r="I144" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J144" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K144" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="145" spans="1:11">
@@ -5428,13 +5431,13 @@
         <v>14</v>
       </c>
       <c r="I145" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J145" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K145" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="146" spans="1:11">
@@ -5460,13 +5463,13 @@
         <v>14</v>
       </c>
       <c r="I146" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J146" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K146" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="147" spans="1:11">
@@ -5492,13 +5495,13 @@
         <v>14</v>
       </c>
       <c r="I147" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J147" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K147" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="148" spans="1:11">
@@ -5524,13 +5527,13 @@
         <v>14</v>
       </c>
       <c r="I148" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J148" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K148" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="149" spans="1:11">
@@ -5556,13 +5559,13 @@
         <v>14</v>
       </c>
       <c r="I149" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J149" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K149" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="150" spans="1:11">
@@ -5588,13 +5591,13 @@
         <v>14</v>
       </c>
       <c r="I150" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J150" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K150" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="151" spans="1:11">
@@ -5614,19 +5617,19 @@
         <v>0</v>
       </c>
       <c r="F151" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G151">
         <v>14</v>
       </c>
       <c r="I151" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J151" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K151" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="152" spans="1:11">
@@ -5646,19 +5649,19 @@
         <v>1</v>
       </c>
       <c r="F152" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G152">
         <v>14</v>
       </c>
       <c r="I152" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J152" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K152" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="153" spans="1:11">
@@ -5678,19 +5681,19 @@
         <v>0</v>
       </c>
       <c r="F153" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G153">
         <v>14</v>
       </c>
       <c r="I153" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J153" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K153" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="154" spans="1:11">
@@ -5710,19 +5713,19 @@
         <v>0</v>
       </c>
       <c r="F154" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G154">
         <v>14</v>
       </c>
       <c r="I154" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J154" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K154" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="155" spans="1:11">
@@ -5742,19 +5745,19 @@
         <v>0</v>
       </c>
       <c r="F155" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G155">
         <v>14</v>
       </c>
       <c r="I155" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J155" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K155" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="156" spans="1:11">
@@ -5780,13 +5783,13 @@
         <v>15</v>
       </c>
       <c r="I156" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J156" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K156" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="157" spans="1:11">
@@ -5812,13 +5815,13 @@
         <v>15</v>
       </c>
       <c r="I157" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J157" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K157" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="158" spans="1:11">
@@ -5844,13 +5847,13 @@
         <v>15</v>
       </c>
       <c r="I158" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J158" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K158" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="159" spans="1:11">
@@ -5876,13 +5879,13 @@
         <v>15</v>
       </c>
       <c r="I159" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J159" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K159" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="160" spans="1:11">
@@ -5908,13 +5911,13 @@
         <v>15</v>
       </c>
       <c r="I160" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J160" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K160" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="161" spans="1:11">
@@ -5940,13 +5943,13 @@
         <v>15</v>
       </c>
       <c r="I161" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J161" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K161" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="162" spans="1:11">
@@ -5966,19 +5969,19 @@
         <v>0</v>
       </c>
       <c r="F162" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G162">
         <v>15</v>
       </c>
       <c r="I162" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J162" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K162" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="163" spans="1:11">
@@ -5998,19 +6001,19 @@
         <v>0</v>
       </c>
       <c r="F163" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G163">
         <v>15</v>
       </c>
       <c r="I163" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J163" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K163" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="164" spans="1:11">
@@ -6030,19 +6033,19 @@
         <v>0</v>
       </c>
       <c r="F164" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G164">
         <v>15</v>
       </c>
       <c r="I164" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J164" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K164" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="165" spans="1:11">
@@ -6062,19 +6065,19 @@
         <v>1</v>
       </c>
       <c r="F165" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G165">
         <v>15</v>
       </c>
       <c r="I165" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J165" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K165" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="166" spans="1:11">
@@ -6094,19 +6097,19 @@
         <v>0</v>
       </c>
       <c r="F166" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G166">
         <v>15</v>
       </c>
       <c r="I166" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J166" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K166" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="167" spans="1:11">
@@ -6132,13 +6135,13 @@
         <v>16</v>
       </c>
       <c r="I167" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J167" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K167" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="168" spans="1:11">
@@ -6164,13 +6167,13 @@
         <v>16</v>
       </c>
       <c r="I168" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J168" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K168" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="169" spans="1:11">
@@ -6196,13 +6199,13 @@
         <v>16</v>
       </c>
       <c r="I169" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J169" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K169" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="170" spans="1:11">
@@ -6228,13 +6231,13 @@
         <v>16</v>
       </c>
       <c r="I170" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J170" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K170" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="171" spans="1:11">
@@ -6260,13 +6263,13 @@
         <v>16</v>
       </c>
       <c r="I171" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J171" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K171" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="172" spans="1:11">
@@ -6292,13 +6295,13 @@
         <v>16</v>
       </c>
       <c r="I172" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J172" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K172" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="173" spans="1:11">
@@ -6318,19 +6321,19 @@
         <v>0</v>
       </c>
       <c r="F173" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G173">
         <v>16</v>
       </c>
       <c r="I173" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J173" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K173" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="174" spans="1:11">
@@ -6350,19 +6353,19 @@
         <v>0</v>
       </c>
       <c r="F174" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G174">
         <v>16</v>
       </c>
       <c r="I174" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J174" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K174" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="175" spans="1:11">
@@ -6382,19 +6385,19 @@
         <v>0</v>
       </c>
       <c r="F175" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G175">
         <v>16</v>
       </c>
       <c r="I175" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J175" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K175" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="176" spans="1:11">
@@ -6414,19 +6417,19 @@
         <v>1</v>
       </c>
       <c r="F176" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G176">
         <v>16</v>
       </c>
       <c r="I176" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J176" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K176" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="177" spans="1:11">
@@ -6446,19 +6449,19 @@
         <v>0</v>
       </c>
       <c r="F177" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G177">
         <v>16</v>
       </c>
       <c r="I177" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J177" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K177" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="178" spans="1:11">
@@ -6484,13 +6487,13 @@
         <v>17</v>
       </c>
       <c r="I178" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J178" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K178" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="179" spans="1:11">
@@ -6516,13 +6519,13 @@
         <v>17</v>
       </c>
       <c r="I179" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J179" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K179" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="180" spans="1:11">
@@ -6548,13 +6551,13 @@
         <v>17</v>
       </c>
       <c r="I180" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J180" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K180" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="181" spans="1:11">
@@ -6580,13 +6583,13 @@
         <v>17</v>
       </c>
       <c r="I181" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J181" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K181" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="182" spans="1:11">
@@ -6612,13 +6615,13 @@
         <v>17</v>
       </c>
       <c r="I182" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J182" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K182" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="183" spans="1:11">
@@ -6644,13 +6647,13 @@
         <v>17</v>
       </c>
       <c r="I183" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J183" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K183" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="184" spans="1:11">
@@ -6670,19 +6673,19 @@
         <v>0</v>
       </c>
       <c r="F184" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G184">
         <v>17</v>
       </c>
       <c r="I184" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J184" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K184" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="185" spans="1:11">
@@ -6702,19 +6705,19 @@
         <v>1</v>
       </c>
       <c r="F185" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G185">
         <v>17</v>
       </c>
       <c r="I185" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J185" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K185" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="186" spans="1:11">
@@ -6734,19 +6737,19 @@
         <v>0</v>
       </c>
       <c r="F186" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G186">
         <v>17</v>
       </c>
       <c r="I186" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J186" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K186" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="187" spans="1:11">
@@ -6766,19 +6769,19 @@
         <v>0</v>
       </c>
       <c r="F187" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G187">
         <v>17</v>
       </c>
       <c r="I187" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J187" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K187" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="188" spans="1:11">
@@ -6798,19 +6801,19 @@
         <v>0</v>
       </c>
       <c r="F188" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G188">
         <v>17</v>
       </c>
       <c r="I188" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J188" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K188" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="189" spans="1:11">
@@ -6836,13 +6839,13 @@
         <v>18</v>
       </c>
       <c r="I189" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J189" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K189" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="190" spans="1:11">
@@ -6868,13 +6871,13 @@
         <v>18</v>
       </c>
       <c r="I190" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J190" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K190" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="191" spans="1:11">
@@ -6900,13 +6903,13 @@
         <v>18</v>
       </c>
       <c r="I191" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J191" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K191" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="192" spans="1:11">
@@ -6932,13 +6935,13 @@
         <v>18</v>
       </c>
       <c r="I192" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J192" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K192" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="193" spans="1:11">
@@ -6964,13 +6967,13 @@
         <v>18</v>
       </c>
       <c r="I193" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J193" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K193" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="194" spans="1:11">
@@ -6996,13 +6999,13 @@
         <v>18</v>
       </c>
       <c r="I194" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J194" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K194" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="195" spans="1:11">
@@ -7022,19 +7025,19 @@
         <v>0</v>
       </c>
       <c r="F195" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G195">
         <v>18</v>
       </c>
       <c r="I195" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J195" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K195" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="196" spans="1:11">
@@ -7054,19 +7057,19 @@
         <v>1</v>
       </c>
       <c r="F196" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G196">
         <v>18</v>
       </c>
       <c r="I196" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J196" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K196" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="197" spans="1:11">
@@ -7086,19 +7089,19 @@
         <v>0</v>
       </c>
       <c r="F197" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G197">
         <v>18</v>
       </c>
       <c r="I197" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J197" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K197" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="198" spans="1:11">
@@ -7118,19 +7121,19 @@
         <v>0</v>
       </c>
       <c r="F198" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G198">
         <v>18</v>
       </c>
       <c r="I198" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J198" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K198" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="199" spans="1:11">
@@ -7150,19 +7153,19 @@
         <v>0</v>
       </c>
       <c r="F199" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G199">
         <v>18</v>
       </c>
       <c r="I199" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J199" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K199" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="200" spans="1:11">
@@ -7188,13 +7191,13 @@
         <v>19</v>
       </c>
       <c r="I200" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J200" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K200" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="201" spans="1:11">
@@ -7220,13 +7223,13 @@
         <v>19</v>
       </c>
       <c r="I201" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J201" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K201" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="202" spans="1:11">
@@ -7252,13 +7255,13 @@
         <v>19</v>
       </c>
       <c r="I202" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J202" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K202" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="203" spans="1:11">
@@ -7284,13 +7287,13 @@
         <v>19</v>
       </c>
       <c r="I203" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J203" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K203" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="204" spans="1:11">
@@ -7316,13 +7319,13 @@
         <v>19</v>
       </c>
       <c r="I204" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J204" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K204" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="205" spans="1:11">
@@ -7348,13 +7351,13 @@
         <v>19</v>
       </c>
       <c r="I205" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J205" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K205" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="206" spans="1:11">
@@ -7374,19 +7377,19 @@
         <v>0</v>
       </c>
       <c r="F206" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G206">
         <v>19</v>
       </c>
       <c r="I206" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J206" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K206" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="207" spans="1:11">
@@ -7406,19 +7409,19 @@
         <v>0</v>
       </c>
       <c r="F207" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G207">
         <v>19</v>
       </c>
       <c r="I207" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J207" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K207" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="208" spans="1:11">
@@ -7438,19 +7441,19 @@
         <v>1</v>
       </c>
       <c r="F208" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G208">
         <v>19</v>
       </c>
       <c r="I208" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J208" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K208" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="209" spans="1:11">
@@ -7470,19 +7473,19 @@
         <v>0</v>
       </c>
       <c r="F209" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G209">
         <v>19</v>
       </c>
       <c r="I209" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J209" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K209" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="210" spans="1:11">
@@ -7502,19 +7505,19 @@
         <v>0</v>
       </c>
       <c r="F210" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G210">
         <v>19</v>
       </c>
       <c r="I210" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J210" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K210" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="211" spans="1:11">
@@ -7540,13 +7543,13 @@
         <v>20</v>
       </c>
       <c r="I211" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J211" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K211" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="212" spans="1:11">
@@ -7572,13 +7575,13 @@
         <v>20</v>
       </c>
       <c r="I212" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J212" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K212" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="213" spans="1:11">
@@ -7604,13 +7607,13 @@
         <v>20</v>
       </c>
       <c r="I213" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J213" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K213" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="214" spans="1:11">
@@ -7636,13 +7639,13 @@
         <v>20</v>
       </c>
       <c r="I214" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J214" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K214" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="215" spans="1:11">
@@ -7668,16 +7671,16 @@
         <v>20</v>
       </c>
       <c r="H215" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I215" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J215" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K215" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="216" spans="1:11">
@@ -7703,13 +7706,13 @@
         <v>20</v>
       </c>
       <c r="I216" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J216" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K216" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="217" spans="1:11">
@@ -7729,19 +7732,19 @@
         <v>0</v>
       </c>
       <c r="F217" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G217">
         <v>20</v>
       </c>
       <c r="I217" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J217" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K217" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="218" spans="1:11">
@@ -7761,19 +7764,19 @@
         <v>1</v>
       </c>
       <c r="F218" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G218">
         <v>20</v>
       </c>
       <c r="I218" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J218" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K218" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="219" spans="1:11">
@@ -7793,19 +7796,19 @@
         <v>0</v>
       </c>
       <c r="F219" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G219">
         <v>20</v>
       </c>
       <c r="I219" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J219" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K219" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="220" spans="1:11">
@@ -7825,19 +7828,19 @@
         <v>0</v>
       </c>
       <c r="F220" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G220">
         <v>20</v>
       </c>
       <c r="I220" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J220" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K220" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="221" spans="1:11">
@@ -7857,19 +7860,19 @@
         <v>0</v>
       </c>
       <c r="F221" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G221">
         <v>20</v>
       </c>
       <c r="I221" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J221" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K221" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="222" spans="1:11">
@@ -7895,13 +7898,13 @@
         <v>21</v>
       </c>
       <c r="I222" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J222" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K222" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="223" spans="1:11">
@@ -7927,13 +7930,13 @@
         <v>21</v>
       </c>
       <c r="I223" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J223" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K223" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="224" spans="1:11">
@@ -7959,13 +7962,13 @@
         <v>21</v>
       </c>
       <c r="I224" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J224" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K224" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="225" spans="1:11">
@@ -7991,13 +7994,13 @@
         <v>21</v>
       </c>
       <c r="I225" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J225" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K225" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="226" spans="1:11">
@@ -8023,13 +8026,13 @@
         <v>21</v>
       </c>
       <c r="I226" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J226" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K226" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="227" spans="1:11">
@@ -8055,13 +8058,13 @@
         <v>21</v>
       </c>
       <c r="I227" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J227" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K227" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="228" spans="1:11">
@@ -8081,19 +8084,19 @@
         <v>0</v>
       </c>
       <c r="F228" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G228">
         <v>21</v>
       </c>
       <c r="I228" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J228" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K228" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="229" spans="1:11">
@@ -8113,19 +8116,19 @@
         <v>0</v>
       </c>
       <c r="F229" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G229">
         <v>21</v>
       </c>
       <c r="I229" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J229" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K229" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="230" spans="1:11">
@@ -8145,19 +8148,19 @@
         <v>0</v>
       </c>
       <c r="F230" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G230">
         <v>21</v>
       </c>
       <c r="I230" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J230" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K230" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="231" spans="1:11">
@@ -8177,19 +8180,19 @@
         <v>0</v>
       </c>
       <c r="F231" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G231">
         <v>21</v>
       </c>
       <c r="I231" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J231" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K231" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="232" spans="1:11">
@@ -8209,19 +8212,19 @@
         <v>0</v>
       </c>
       <c r="F232" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G232">
         <v>21</v>
       </c>
       <c r="I232" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J232" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K232" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="233" spans="1:11">
@@ -8247,13 +8250,13 @@
         <v>22</v>
       </c>
       <c r="I233" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J233" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K233" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="234" spans="1:11">
@@ -8279,13 +8282,13 @@
         <v>22</v>
       </c>
       <c r="I234" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J234" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K234" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="235" spans="1:11">
@@ -8311,13 +8314,13 @@
         <v>22</v>
       </c>
       <c r="I235" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J235" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K235" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="236" spans="1:11">
@@ -8343,13 +8346,13 @@
         <v>22</v>
       </c>
       <c r="I236" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J236" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K236" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="237" spans="1:11">
@@ -8375,13 +8378,13 @@
         <v>22</v>
       </c>
       <c r="I237" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J237" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K237" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="238" spans="1:11">
@@ -8407,13 +8410,13 @@
         <v>22</v>
       </c>
       <c r="I238" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J238" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K238" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="239" spans="1:11">
@@ -8433,19 +8436,19 @@
         <v>0</v>
       </c>
       <c r="F239" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G239">
         <v>22</v>
       </c>
       <c r="I239" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J239" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K239" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="240" spans="1:11">
@@ -8465,19 +8468,19 @@
         <v>0</v>
       </c>
       <c r="F240" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G240">
         <v>22</v>
       </c>
       <c r="I240" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J240" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K240" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="241" spans="1:11">
@@ -8497,19 +8500,19 @@
         <v>0</v>
       </c>
       <c r="F241" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G241">
         <v>22</v>
       </c>
       <c r="I241" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J241" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K241" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="242" spans="1:11">
@@ -8529,22 +8532,22 @@
         <v>1</v>
       </c>
       <c r="F242" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G242">
         <v>22</v>
       </c>
       <c r="H242" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I242" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J242" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K242" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="243" spans="1:11">
@@ -8564,19 +8567,19 @@
         <v>0</v>
       </c>
       <c r="F243" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G243">
         <v>22</v>
       </c>
       <c r="I243" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J243" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K243" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="244" spans="1:11">
@@ -8602,13 +8605,13 @@
         <v>23</v>
       </c>
       <c r="I244" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J244" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K244" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="245" spans="1:11">
@@ -8634,13 +8637,13 @@
         <v>23</v>
       </c>
       <c r="I245" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J245" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K245" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="246" spans="1:11">
@@ -8666,13 +8669,13 @@
         <v>23</v>
       </c>
       <c r="I246" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J246" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K246" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="247" spans="1:11">
@@ -8698,13 +8701,13 @@
         <v>23</v>
       </c>
       <c r="I247" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J247" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K247" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="248" spans="1:11">
@@ -8730,13 +8733,13 @@
         <v>23</v>
       </c>
       <c r="I248" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J248" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K248" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="249" spans="1:11">
@@ -8762,13 +8765,13 @@
         <v>23</v>
       </c>
       <c r="I249" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J249" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K249" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="250" spans="1:11">
@@ -8788,19 +8791,19 @@
         <v>1</v>
       </c>
       <c r="F250" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G250">
         <v>23</v>
       </c>
       <c r="I250" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J250" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K250" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="251" spans="1:11">
@@ -8820,19 +8823,19 @@
         <v>0</v>
       </c>
       <c r="F251" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G251">
         <v>23</v>
       </c>
       <c r="I251" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J251" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K251" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="252" spans="1:11">
@@ -8852,19 +8855,19 @@
         <v>0</v>
       </c>
       <c r="F252" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G252">
         <v>23</v>
       </c>
       <c r="I252" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J252" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K252" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="253" spans="1:11">
@@ -8884,19 +8887,19 @@
         <v>0</v>
       </c>
       <c r="F253" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G253">
         <v>23</v>
       </c>
       <c r="I253" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J253" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K253" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="254" spans="1:11">
@@ -8916,19 +8919,19 @@
         <v>0</v>
       </c>
       <c r="F254" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G254">
         <v>23</v>
       </c>
       <c r="I254" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J254" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K254" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="255" spans="1:11">
@@ -8954,13 +8957,13 @@
         <v>24</v>
       </c>
       <c r="I255" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="J255" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K255" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="256" spans="1:11">
@@ -8986,13 +8989,13 @@
         <v>24</v>
       </c>
       <c r="I256" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="J256" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K256" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="257" spans="1:11">
@@ -9018,13 +9021,13 @@
         <v>24</v>
       </c>
       <c r="I257" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="J257" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K257" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="258" spans="1:11">
@@ -9050,13 +9053,13 @@
         <v>24</v>
       </c>
       <c r="I258" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="J258" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K258" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="259" spans="1:11">
@@ -9082,13 +9085,13 @@
         <v>24</v>
       </c>
       <c r="I259" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="J259" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K259" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="260" spans="1:11">
@@ -9114,13 +9117,13 @@
         <v>24</v>
       </c>
       <c r="I260" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="J260" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K260" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="261" spans="1:11">
@@ -9140,19 +9143,19 @@
         <v>0</v>
       </c>
       <c r="F261" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G261">
         <v>24</v>
       </c>
       <c r="I261" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="J261" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K261" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="262" spans="1:11">
@@ -9172,19 +9175,19 @@
         <v>0</v>
       </c>
       <c r="F262" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G262">
         <v>24</v>
       </c>
       <c r="I262" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="J262" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K262" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="263" spans="1:11">
@@ -9204,19 +9207,19 @@
         <v>0</v>
       </c>
       <c r="F263" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G263">
         <v>24</v>
       </c>
       <c r="I263" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="J263" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K263" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="264" spans="1:11">
@@ -9236,19 +9239,19 @@
         <v>0</v>
       </c>
       <c r="F264" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G264">
         <v>24</v>
       </c>
       <c r="I264" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="J264" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K264" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="265" spans="1:11">
@@ -9268,19 +9271,19 @@
         <v>1</v>
       </c>
       <c r="F265" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G265">
         <v>24</v>
       </c>
       <c r="I265" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="J265" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K265" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="266" spans="1:11">
@@ -9306,13 +9309,13 @@
         <v>25</v>
       </c>
       <c r="I266" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J266" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K266" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="267" spans="1:11">
@@ -9338,13 +9341,13 @@
         <v>25</v>
       </c>
       <c r="I267" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J267" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K267" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="268" spans="1:11">
@@ -9370,13 +9373,13 @@
         <v>25</v>
       </c>
       <c r="I268" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J268" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K268" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="269" spans="1:11">
@@ -9402,13 +9405,13 @@
         <v>25</v>
       </c>
       <c r="I269" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J269" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K269" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="270" spans="1:11">
@@ -9434,13 +9437,13 @@
         <v>25</v>
       </c>
       <c r="I270" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J270" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K270" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="271" spans="1:11">
@@ -9466,13 +9469,13 @@
         <v>25</v>
       </c>
       <c r="I271" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J271" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K271" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="272" spans="1:11">
@@ -9492,19 +9495,19 @@
         <v>0</v>
       </c>
       <c r="F272" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G272">
         <v>25</v>
       </c>
       <c r="I272" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J272" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K272" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="273" spans="1:11">
@@ -9524,19 +9527,19 @@
         <v>0</v>
       </c>
       <c r="F273" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G273">
         <v>25</v>
       </c>
       <c r="I273" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J273" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K273" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="274" spans="1:11">
@@ -9556,19 +9559,19 @@
         <v>1</v>
       </c>
       <c r="F274" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G274">
         <v>25</v>
       </c>
       <c r="I274" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J274" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K274" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="275" spans="1:11">
@@ -9588,19 +9591,19 @@
         <v>0</v>
       </c>
       <c r="F275" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G275">
         <v>25</v>
       </c>
       <c r="I275" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J275" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K275" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="276" spans="1:11">
@@ -9620,19 +9623,19 @@
         <v>0</v>
       </c>
       <c r="F276" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G276">
         <v>25</v>
       </c>
       <c r="I276" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J276" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K276" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="277" spans="1:11">
@@ -9658,13 +9661,13 @@
         <v>26</v>
       </c>
       <c r="I277" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J277" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K277" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="278" spans="1:11">
@@ -9690,13 +9693,13 @@
         <v>26</v>
       </c>
       <c r="I278" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J278" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K278" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="279" spans="1:11">
@@ -9722,13 +9725,13 @@
         <v>26</v>
       </c>
       <c r="I279" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J279" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K279" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="280" spans="1:11">
@@ -9754,13 +9757,13 @@
         <v>26</v>
       </c>
       <c r="I280" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J280" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K280" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="281" spans="1:11">
@@ -9786,16 +9789,16 @@
         <v>26</v>
       </c>
       <c r="H281" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I281" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J281" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K281" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="282" spans="1:11">
@@ -9821,13 +9824,13 @@
         <v>26</v>
       </c>
       <c r="I282" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J282" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K282" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="283" spans="1:11">
@@ -9847,19 +9850,19 @@
         <v>0</v>
       </c>
       <c r="F283" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G283">
         <v>26</v>
       </c>
       <c r="I283" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J283" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K283" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="284" spans="1:11">
@@ -9879,19 +9882,19 @@
         <v>0</v>
       </c>
       <c r="F284" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G284">
         <v>26</v>
       </c>
       <c r="I284" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J284" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K284" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="285" spans="1:11">
@@ -9911,19 +9914,19 @@
         <v>0</v>
       </c>
       <c r="F285" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G285">
         <v>26</v>
       </c>
       <c r="I285" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J285" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K285" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="286" spans="1:11">
@@ -9943,19 +9946,19 @@
         <v>0</v>
       </c>
       <c r="F286" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G286">
         <v>26</v>
       </c>
       <c r="I286" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J286" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K286" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="287" spans="1:11">
@@ -9981,13 +9984,13 @@
         <v>27</v>
       </c>
       <c r="I287" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J287" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K287" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="288" spans="1:11">
@@ -10013,13 +10016,13 @@
         <v>27</v>
       </c>
       <c r="I288" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J288" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K288" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="289" spans="1:11">
@@ -10045,13 +10048,13 @@
         <v>27</v>
       </c>
       <c r="I289" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J289" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K289" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="290" spans="1:11">
@@ -10077,13 +10080,13 @@
         <v>27</v>
       </c>
       <c r="I290" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J290" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K290" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="291" spans="1:11">
@@ -10109,16 +10112,16 @@
         <v>27</v>
       </c>
       <c r="H291" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I291" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J291" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K291" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="292" spans="1:11">
@@ -10144,13 +10147,13 @@
         <v>27</v>
       </c>
       <c r="I292" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J292" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K292" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="293" spans="1:11">
@@ -10170,19 +10173,19 @@
         <v>0</v>
       </c>
       <c r="F293" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G293">
         <v>27</v>
       </c>
       <c r="I293" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J293" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K293" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="294" spans="1:11">
@@ -10202,19 +10205,19 @@
         <v>0</v>
       </c>
       <c r="F294" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G294">
         <v>27</v>
       </c>
       <c r="I294" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J294" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K294" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="295" spans="1:11">
@@ -10234,19 +10237,19 @@
         <v>0</v>
       </c>
       <c r="F295" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G295">
         <v>27</v>
       </c>
       <c r="I295" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J295" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K295" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="296" spans="1:11">
@@ -10266,19 +10269,19 @@
         <v>0</v>
       </c>
       <c r="F296" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G296">
         <v>27</v>
       </c>
       <c r="I296" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J296" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K296" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="297" spans="1:11">
@@ -10304,13 +10307,13 @@
         <v>28</v>
       </c>
       <c r="I297" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J297" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K297" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="298" spans="1:11">
@@ -10336,13 +10339,13 @@
         <v>28</v>
       </c>
       <c r="I298" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J298" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K298" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="299" spans="1:11">
@@ -10368,13 +10371,13 @@
         <v>28</v>
       </c>
       <c r="I299" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J299" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K299" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="300" spans="1:11">
@@ -10400,13 +10403,13 @@
         <v>28</v>
       </c>
       <c r="I300" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J300" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K300" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="301" spans="1:11">
@@ -10432,13 +10435,13 @@
         <v>28</v>
       </c>
       <c r="I301" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J301" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K301" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="302" spans="1:11">
@@ -10464,13 +10467,13 @@
         <v>28</v>
       </c>
       <c r="I302" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J302" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K302" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="303" spans="1:11">
@@ -10490,19 +10493,19 @@
         <v>0</v>
       </c>
       <c r="F303" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G303">
         <v>28</v>
       </c>
       <c r="I303" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J303" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K303" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="304" spans="1:11">
@@ -10522,19 +10525,19 @@
         <v>0</v>
       </c>
       <c r="F304" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G304">
         <v>28</v>
       </c>
       <c r="I304" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J304" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K304" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="305" spans="1:11">
@@ -10554,19 +10557,19 @@
         <v>0</v>
       </c>
       <c r="F305" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G305">
         <v>28</v>
       </c>
       <c r="I305" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J305" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K305" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="306" spans="1:11">
@@ -10586,19 +10589,19 @@
         <v>0</v>
       </c>
       <c r="F306" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G306">
         <v>28</v>
       </c>
       <c r="I306" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J306" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K306" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="307" spans="1:11">
@@ -10624,13 +10627,13 @@
         <v>29</v>
       </c>
       <c r="I307" t="s">
+        <v>111</v>
+      </c>
+      <c r="J307" t="s">
         <v>110</v>
       </c>
-      <c r="J307" t="s">
-        <v>109</v>
-      </c>
       <c r="K307" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="308" spans="1:11">
@@ -10656,13 +10659,13 @@
         <v>29</v>
       </c>
       <c r="I308" t="s">
+        <v>111</v>
+      </c>
+      <c r="J308" t="s">
         <v>110</v>
       </c>
-      <c r="J308" t="s">
-        <v>109</v>
-      </c>
       <c r="K308" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="309" spans="1:11">
@@ -10688,13 +10691,13 @@
         <v>29</v>
       </c>
       <c r="I309" t="s">
+        <v>111</v>
+      </c>
+      <c r="J309" t="s">
         <v>110</v>
       </c>
-      <c r="J309" t="s">
-        <v>109</v>
-      </c>
       <c r="K309" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="310" spans="1:11">
@@ -10720,13 +10723,13 @@
         <v>29</v>
       </c>
       <c r="I310" t="s">
+        <v>111</v>
+      </c>
+      <c r="J310" t="s">
         <v>110</v>
       </c>
-      <c r="J310" t="s">
-        <v>109</v>
-      </c>
       <c r="K310" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="311" spans="1:11">
@@ -10752,13 +10755,13 @@
         <v>29</v>
       </c>
       <c r="I311" t="s">
+        <v>111</v>
+      </c>
+      <c r="J311" t="s">
         <v>110</v>
       </c>
-      <c r="J311" t="s">
-        <v>109</v>
-      </c>
       <c r="K311" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="312" spans="1:11">
@@ -10784,13 +10787,13 @@
         <v>29</v>
       </c>
       <c r="I312" t="s">
+        <v>111</v>
+      </c>
+      <c r="J312" t="s">
         <v>110</v>
       </c>
-      <c r="J312" t="s">
-        <v>109</v>
-      </c>
       <c r="K312" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="313" spans="1:11">
@@ -10810,19 +10813,19 @@
         <v>0</v>
       </c>
       <c r="F313" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G313">
         <v>29</v>
       </c>
       <c r="I313" t="s">
+        <v>111</v>
+      </c>
+      <c r="J313" t="s">
         <v>110</v>
       </c>
-      <c r="J313" t="s">
-        <v>109</v>
-      </c>
       <c r="K313" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="314" spans="1:11">
@@ -10842,19 +10845,19 @@
         <v>0</v>
       </c>
       <c r="F314" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G314">
         <v>29</v>
       </c>
       <c r="I314" t="s">
+        <v>111</v>
+      </c>
+      <c r="J314" t="s">
         <v>110</v>
       </c>
-      <c r="J314" t="s">
-        <v>109</v>
-      </c>
       <c r="K314" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="315" spans="1:11">
@@ -10874,19 +10877,19 @@
         <v>0</v>
       </c>
       <c r="F315" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G315">
         <v>29</v>
       </c>
       <c r="I315" t="s">
+        <v>111</v>
+      </c>
+      <c r="J315" t="s">
         <v>110</v>
       </c>
-      <c r="J315" t="s">
-        <v>109</v>
-      </c>
       <c r="K315" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="316" spans="1:11">
@@ -10906,19 +10909,19 @@
         <v>0</v>
       </c>
       <c r="F316" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G316">
         <v>29</v>
       </c>
       <c r="I316" t="s">
+        <v>111</v>
+      </c>
+      <c r="J316" t="s">
         <v>110</v>
       </c>
-      <c r="J316" t="s">
-        <v>109</v>
-      </c>
       <c r="K316" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="317" spans="1:11">
@@ -10944,13 +10947,13 @@
         <v>30</v>
       </c>
       <c r="I317" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="J317" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K317" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="318" spans="1:11">
@@ -10976,13 +10979,13 @@
         <v>30</v>
       </c>
       <c r="I318" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="J318" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K318" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="319" spans="1:11">
@@ -11008,13 +11011,13 @@
         <v>30</v>
       </c>
       <c r="I319" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="J319" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K319" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="320" spans="1:11">
@@ -11040,13 +11043,13 @@
         <v>30</v>
       </c>
       <c r="I320" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="J320" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K320" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="321" spans="1:11">
@@ -11072,13 +11075,13 @@
         <v>30</v>
       </c>
       <c r="I321" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="J321" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K321" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="322" spans="1:11">
@@ -11104,13 +11107,13 @@
         <v>30</v>
       </c>
       <c r="I322" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="J322" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K322" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="323" spans="1:11">
@@ -11130,19 +11133,19 @@
         <v>0</v>
       </c>
       <c r="F323" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G323">
         <v>30</v>
       </c>
       <c r="I323" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="J323" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K323" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="324" spans="1:11">
@@ -11162,19 +11165,19 @@
         <v>0</v>
       </c>
       <c r="F324" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G324">
         <v>30</v>
       </c>
       <c r="I324" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="J324" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K324" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="325" spans="1:11">
@@ -11194,19 +11197,19 @@
         <v>0</v>
       </c>
       <c r="F325" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G325">
         <v>30</v>
       </c>
       <c r="I325" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="J325" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K325" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="326" spans="1:11">
@@ -11226,19 +11229,19 @@
         <v>0</v>
       </c>
       <c r="F326" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G326">
         <v>30</v>
       </c>
       <c r="I326" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="J326" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K326" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="327" spans="1:11">
@@ -11264,13 +11267,13 @@
         <v>31</v>
       </c>
       <c r="I327" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J327" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K327" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="328" spans="1:11">
@@ -11296,13 +11299,13 @@
         <v>31</v>
       </c>
       <c r="I328" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J328" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K328" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="329" spans="1:11">
@@ -11328,13 +11331,13 @@
         <v>31</v>
       </c>
       <c r="I329" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J329" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K329" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="330" spans="1:11">
@@ -11360,16 +11363,16 @@
         <v>31</v>
       </c>
       <c r="H330" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I330" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J330" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K330" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="331" spans="1:11">
@@ -11395,16 +11398,16 @@
         <v>31</v>
       </c>
       <c r="H331" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I331" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J331" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K331" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="332" spans="1:11">
@@ -11430,16 +11433,16 @@
         <v>31</v>
       </c>
       <c r="H332" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I332" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J332" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K332" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="333" spans="1:11">
@@ -11459,19 +11462,19 @@
         <v>0</v>
       </c>
       <c r="F333" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G333">
         <v>31</v>
       </c>
       <c r="I333" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J333" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K333" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="334" spans="1:11">
@@ -11491,19 +11494,19 @@
         <v>0</v>
       </c>
       <c r="F334" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G334">
         <v>31</v>
       </c>
       <c r="I334" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J334" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K334" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="335" spans="1:11">
@@ -11523,19 +11526,19 @@
         <v>0</v>
       </c>
       <c r="F335" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G335">
         <v>31</v>
       </c>
       <c r="I335" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J335" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K335" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="336" spans="1:11">
@@ -11555,19 +11558,19 @@
         <v>0</v>
       </c>
       <c r="F336" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G336">
         <v>31</v>
       </c>
       <c r="I336" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J336" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K336" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="337" spans="1:11">
@@ -11593,16 +11596,16 @@
         <v>32</v>
       </c>
       <c r="H337" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I337" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J337" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K337" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="338" spans="1:11">
@@ -11628,13 +11631,13 @@
         <v>32</v>
       </c>
       <c r="I338" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J338" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K338" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="339" spans="1:11">
@@ -11660,13 +11663,13 @@
         <v>32</v>
       </c>
       <c r="I339" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J339" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K339" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="340" spans="1:11">
@@ -11692,13 +11695,13 @@
         <v>32</v>
       </c>
       <c r="I340" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J340" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K340" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="341" spans="1:11">
@@ -11724,16 +11727,16 @@
         <v>32</v>
       </c>
       <c r="H341" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I341" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J341" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K341" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="342" spans="1:11">
@@ -11759,13 +11762,13 @@
         <v>32</v>
       </c>
       <c r="I342" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J342" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K342" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="343" spans="1:11">
@@ -11785,19 +11788,19 @@
         <v>0</v>
       </c>
       <c r="F343" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G343">
         <v>32</v>
       </c>
       <c r="I343" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J343" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K343" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="344" spans="1:11">
@@ -11817,19 +11820,19 @@
         <v>0</v>
       </c>
       <c r="F344" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G344">
         <v>32</v>
       </c>
       <c r="I344" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J344" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K344" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="345" spans="1:11">
@@ -11849,19 +11852,19 @@
         <v>0</v>
       </c>
       <c r="F345" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G345">
         <v>32</v>
       </c>
       <c r="I345" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J345" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K345" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="346" spans="1:11">
@@ -11881,19 +11884,19 @@
         <v>0</v>
       </c>
       <c r="F346" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G346">
         <v>32</v>
       </c>
       <c r="I346" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J346" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K346" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="347" spans="1:11">
@@ -11919,13 +11922,13 @@
         <v>33</v>
       </c>
       <c r="I347" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J347" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K347" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="348" spans="1:11">
@@ -11951,13 +11954,13 @@
         <v>33</v>
       </c>
       <c r="I348" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J348" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K348" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="349" spans="1:11">
@@ -11983,13 +11986,13 @@
         <v>33</v>
       </c>
       <c r="I349" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J349" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K349" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="350" spans="1:11">
@@ -12015,13 +12018,13 @@
         <v>33</v>
       </c>
       <c r="I350" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J350" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K350" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="351" spans="1:11">
@@ -12047,13 +12050,13 @@
         <v>33</v>
       </c>
       <c r="I351" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J351" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K351" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="352" spans="1:11">
@@ -12079,13 +12082,13 @@
         <v>33</v>
       </c>
       <c r="I352" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J352" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K352" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="353" spans="1:11">
@@ -12105,19 +12108,19 @@
         <v>0</v>
       </c>
       <c r="F353" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G353">
         <v>33</v>
       </c>
       <c r="I353" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J353" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K353" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="354" spans="1:11">
@@ -12137,19 +12140,19 @@
         <v>0</v>
       </c>
       <c r="F354" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G354">
         <v>33</v>
       </c>
       <c r="I354" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J354" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K354" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="355" spans="1:11">
@@ -12169,19 +12172,19 @@
         <v>0</v>
       </c>
       <c r="F355" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G355">
         <v>33</v>
       </c>
       <c r="I355" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J355" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K355" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="356" spans="1:11">
@@ -12201,19 +12204,19 @@
         <v>0</v>
       </c>
       <c r="F356" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G356">
         <v>33</v>
       </c>
       <c r="I356" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J356" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K356" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="357" spans="1:11">
@@ -12239,13 +12242,13 @@
         <v>34</v>
       </c>
       <c r="I357" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J357" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K357" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="358" spans="1:11">
@@ -12271,13 +12274,13 @@
         <v>34</v>
       </c>
       <c r="I358" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J358" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K358" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="359" spans="1:11">
@@ -12303,13 +12306,13 @@
         <v>34</v>
       </c>
       <c r="I359" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J359" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K359" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="360" spans="1:11">
@@ -12335,13 +12338,13 @@
         <v>34</v>
       </c>
       <c r="I360" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J360" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K360" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="361" spans="1:11">
@@ -12367,13 +12370,13 @@
         <v>34</v>
       </c>
       <c r="I361" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J361" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K361" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="362" spans="1:11">
@@ -12399,13 +12402,13 @@
         <v>34</v>
       </c>
       <c r="I362" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J362" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K362" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="363" spans="1:11">
@@ -12425,19 +12428,19 @@
         <v>0</v>
       </c>
       <c r="F363" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G363">
         <v>34</v>
       </c>
       <c r="I363" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J363" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K363" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="364" spans="1:11">
@@ -12457,19 +12460,19 @@
         <v>0</v>
       </c>
       <c r="F364" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G364">
         <v>34</v>
       </c>
       <c r="I364" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J364" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K364" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="365" spans="1:11">
@@ -12489,19 +12492,19 @@
         <v>0</v>
       </c>
       <c r="F365" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G365">
         <v>34</v>
       </c>
       <c r="I365" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J365" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K365" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="366" spans="1:11">
@@ -12521,19 +12524,19 @@
         <v>0</v>
       </c>
       <c r="F366" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G366">
         <v>34</v>
       </c>
       <c r="I366" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J366" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K366" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="367" spans="1:11">
@@ -12559,13 +12562,13 @@
         <v>35</v>
       </c>
       <c r="I367" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J367" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K367" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="368" spans="1:11">
@@ -12591,13 +12594,13 @@
         <v>35</v>
       </c>
       <c r="I368" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J368" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K368" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="369" spans="1:11">
@@ -12623,13 +12626,13 @@
         <v>35</v>
       </c>
       <c r="I369" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J369" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K369" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="370" spans="1:11">
@@ -12655,13 +12658,13 @@
         <v>35</v>
       </c>
       <c r="I370" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J370" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K370" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="371" spans="1:11">
@@ -12687,13 +12690,13 @@
         <v>35</v>
       </c>
       <c r="I371" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J371" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K371" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="372" spans="1:11">
@@ -12719,13 +12722,13 @@
         <v>35</v>
       </c>
       <c r="I372" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J372" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K372" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="373" spans="1:11">
@@ -12745,19 +12748,19 @@
         <v>0</v>
       </c>
       <c r="F373" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G373">
         <v>35</v>
       </c>
       <c r="I373" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J373" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K373" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="374" spans="1:11">
@@ -12777,19 +12780,19 @@
         <v>0</v>
       </c>
       <c r="F374" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G374">
         <v>35</v>
       </c>
       <c r="I374" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J374" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K374" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="375" spans="1:11">
@@ -12809,19 +12812,19 @@
         <v>0</v>
       </c>
       <c r="F375" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G375">
         <v>35</v>
       </c>
       <c r="I375" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J375" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K375" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="376" spans="1:11">
@@ -12841,19 +12844,19 @@
         <v>0</v>
       </c>
       <c r="F376" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G376">
         <v>35</v>
       </c>
       <c r="I376" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J376" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K376" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="377" spans="1:11">
@@ -12879,13 +12882,13 @@
         <v>36</v>
       </c>
       <c r="I377" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J377" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K377" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="378" spans="1:11">
@@ -12911,13 +12914,13 @@
         <v>36</v>
       </c>
       <c r="I378" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J378" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K378" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="379" spans="1:11">
@@ -12943,13 +12946,13 @@
         <v>36</v>
       </c>
       <c r="I379" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J379" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K379" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="380" spans="1:11">
@@ -12975,13 +12978,13 @@
         <v>36</v>
       </c>
       <c r="I380" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J380" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K380" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="381" spans="1:11">
@@ -13007,13 +13010,13 @@
         <v>36</v>
       </c>
       <c r="I381" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J381" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K381" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="382" spans="1:11">
@@ -13039,13 +13042,13 @@
         <v>36</v>
       </c>
       <c r="I382" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J382" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K382" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="383" spans="1:11">
@@ -13065,19 +13068,19 @@
         <v>0</v>
       </c>
       <c r="F383" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G383">
         <v>36</v>
       </c>
       <c r="I383" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J383" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K383" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="384" spans="1:11">
@@ -13097,19 +13100,19 @@
         <v>0</v>
       </c>
       <c r="F384" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G384">
         <v>36</v>
       </c>
       <c r="I384" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J384" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K384" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="385" spans="1:11">
@@ -13129,19 +13132,19 @@
         <v>0</v>
       </c>
       <c r="F385" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G385">
         <v>36</v>
       </c>
       <c r="I385" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J385" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K385" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="386" spans="1:11">
@@ -13161,19 +13164,19 @@
         <v>0</v>
       </c>
       <c r="F386" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G386">
         <v>36</v>
       </c>
       <c r="I386" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J386" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K386" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="387" spans="1:11">
@@ -13199,13 +13202,13 @@
         <v>37</v>
       </c>
       <c r="I387" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J387" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K387" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="388" spans="1:11">
@@ -13231,16 +13234,16 @@
         <v>37</v>
       </c>
       <c r="H388" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I388" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J388" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K388" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="389" spans="1:11">
@@ -13266,13 +13269,13 @@
         <v>37</v>
       </c>
       <c r="I389" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J389" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K389" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="390" spans="1:11">
@@ -13298,13 +13301,13 @@
         <v>37</v>
       </c>
       <c r="I390" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J390" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K390" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="391" spans="1:11">
@@ -13330,13 +13333,13 @@
         <v>37</v>
       </c>
       <c r="I391" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J391" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K391" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="392" spans="1:11">
@@ -13362,13 +13365,13 @@
         <v>37</v>
       </c>
       <c r="I392" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J392" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K392" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="393" spans="1:11">
@@ -13388,19 +13391,19 @@
         <v>0</v>
       </c>
       <c r="F393" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G393">
         <v>37</v>
       </c>
       <c r="I393" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J393" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K393" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="394" spans="1:11">
@@ -13420,19 +13423,19 @@
         <v>0</v>
       </c>
       <c r="F394" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G394">
         <v>37</v>
       </c>
       <c r="I394" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J394" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K394" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="395" spans="1:11">
@@ -13452,19 +13455,19 @@
         <v>0</v>
       </c>
       <c r="F395" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G395">
         <v>37</v>
       </c>
       <c r="I395" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J395" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K395" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="396" spans="1:11">
@@ -13484,19 +13487,19 @@
         <v>0</v>
       </c>
       <c r="F396" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G396">
         <v>37</v>
       </c>
       <c r="I396" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J396" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K396" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="397" spans="1:11">
@@ -13522,13 +13525,13 @@
         <v>38</v>
       </c>
       <c r="I397" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J397" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K397" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="398" spans="1:11">
@@ -13554,13 +13557,13 @@
         <v>38</v>
       </c>
       <c r="I398" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J398" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K398" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="399" spans="1:11">
@@ -13586,16 +13589,16 @@
         <v>38</v>
       </c>
       <c r="H399" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I399" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J399" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K399" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="400" spans="1:11">
@@ -13621,13 +13624,13 @@
         <v>38</v>
       </c>
       <c r="I400" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J400" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K400" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="401" spans="1:11">
@@ -13653,13 +13656,13 @@
         <v>38</v>
       </c>
       <c r="I401" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J401" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K401" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="402" spans="1:11">
@@ -13685,13 +13688,13 @@
         <v>38</v>
       </c>
       <c r="I402" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J402" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K402" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="403" spans="1:11">
@@ -13711,19 +13714,19 @@
         <v>0</v>
       </c>
       <c r="F403" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G403">
         <v>38</v>
       </c>
       <c r="I403" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J403" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K403" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="404" spans="1:11">
@@ -13743,19 +13746,19 @@
         <v>0</v>
       </c>
       <c r="F404" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G404">
         <v>38</v>
       </c>
       <c r="I404" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J404" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K404" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="405" spans="1:11">
@@ -13775,19 +13778,19 @@
         <v>0</v>
       </c>
       <c r="F405" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G405">
         <v>38</v>
       </c>
       <c r="I405" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J405" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K405" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="406" spans="1:11">
@@ -13807,19 +13810,19 @@
         <v>0</v>
       </c>
       <c r="F406" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G406">
         <v>38</v>
       </c>
       <c r="I406" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J406" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K406" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="407" spans="1:11">
@@ -13845,13 +13848,13 @@
         <v>39</v>
       </c>
       <c r="I407" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="J407" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K407" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="408" spans="1:11">
@@ -13877,13 +13880,13 @@
         <v>39</v>
       </c>
       <c r="I408" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="J408" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K408" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="409" spans="1:11">
@@ -13909,13 +13912,13 @@
         <v>39</v>
       </c>
       <c r="I409" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="J409" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K409" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="410" spans="1:11">
@@ -13941,13 +13944,13 @@
         <v>39</v>
       </c>
       <c r="I410" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="J410" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K410" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="411" spans="1:11">
@@ -13973,13 +13976,13 @@
         <v>39</v>
       </c>
       <c r="I411" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="J411" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K411" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="412" spans="1:11">
@@ -14005,13 +14008,13 @@
         <v>39</v>
       </c>
       <c r="I412" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="J412" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K412" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="413" spans="1:11">
@@ -14031,19 +14034,19 @@
         <v>0</v>
       </c>
       <c r="F413" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G413">
         <v>39</v>
       </c>
       <c r="I413" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="J413" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K413" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="414" spans="1:11">
@@ -14063,19 +14066,19 @@
         <v>0</v>
       </c>
       <c r="F414" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G414">
         <v>39</v>
       </c>
       <c r="I414" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="J414" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K414" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="415" spans="1:11">
@@ -14095,19 +14098,19 @@
         <v>0</v>
       </c>
       <c r="F415" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G415">
         <v>39</v>
       </c>
       <c r="I415" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="J415" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K415" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="416" spans="1:11">
@@ -14127,19 +14130,19 @@
         <v>0</v>
       </c>
       <c r="F416" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G416">
         <v>39</v>
       </c>
       <c r="I416" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="J416" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K416" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="417" spans="1:11">
@@ -14165,13 +14168,13 @@
         <v>40</v>
       </c>
       <c r="I417" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J417" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K417" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="418" spans="1:11">
@@ -14197,13 +14200,13 @@
         <v>40</v>
       </c>
       <c r="I418" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J418" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K418" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="419" spans="1:11">
@@ -14229,13 +14232,13 @@
         <v>40</v>
       </c>
       <c r="I419" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J419" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K419" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="420" spans="1:11">
@@ -14261,13 +14264,13 @@
         <v>40</v>
       </c>
       <c r="I420" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J420" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K420" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="421" spans="1:11">
@@ -14293,13 +14296,13 @@
         <v>40</v>
       </c>
       <c r="I421" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J421" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K421" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="422" spans="1:11">
@@ -14325,13 +14328,13 @@
         <v>40</v>
       </c>
       <c r="I422" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J422" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K422" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="423" spans="1:11">
@@ -14351,19 +14354,19 @@
         <v>0</v>
       </c>
       <c r="F423" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G423">
         <v>40</v>
       </c>
       <c r="I423" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J423" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K423" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="424" spans="1:11">
@@ -14383,19 +14386,19 @@
         <v>0</v>
       </c>
       <c r="F424" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G424">
         <v>40</v>
       </c>
       <c r="I424" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J424" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K424" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="425" spans="1:11">
@@ -14415,19 +14418,19 @@
         <v>0</v>
       </c>
       <c r="F425" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G425">
         <v>40</v>
       </c>
       <c r="I425" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J425" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K425" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="426" spans="1:11">
@@ -14447,19 +14450,19 @@
         <v>0</v>
       </c>
       <c r="F426" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G426">
         <v>40</v>
       </c>
       <c r="I426" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J426" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K426" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
